--- a/db/AiCity-83-Cookidoo.xlsx
+++ b/db/AiCity-83-Cookidoo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E400FC-E3E7-674D-A6CA-A201D50CD13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB83491-00B7-7448-9DD4-3877C94E9479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="660" windowWidth="30900" windowHeight="22260" xr2:uid="{7AFFD4FF-400A-AD42-A8A1-055581E3B5DC}"/>
+    <workbookView xWindow="18320" yWindow="1060" windowWidth="30900" windowHeight="22260" xr2:uid="{7AFFD4FF-400A-AD42-A8A1-055581E3B5DC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="365">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1210,6 +1210,495 @@
 義大利麵需要烹煮到全熟但咬起來仍保留彈牙的口感。&lt;br&gt;&lt;br&gt;
 需要利用義大利麵的餘熱來將蛋變得濃稠，所以需要趁義大利麵還溫熱的時候加入蛋液混合。&lt;br&gt;
 為了確保蛋液不會被過度烹煮且醬汁濃稠，在做法6加入蛋液之前，您可以用冷水稍微沖洗主鍋降溫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松露野菇燉飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外表歡透,米心略硬帶有口感的義式燉飯,吸收了野菇和蔬菜高温豐富又清甜的昧道,再加上黑松露醬為燉飯增添了獨特的風味,讓你在家也能品嘗得到餐廳才有的奢華料理!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r4-uLIR3NNE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將紅蔥頭和洋蔥放入主鍋，以3 秒/速度 5切碎，利用刮刀棒將材料刮至主鍋底。&lt;/li&gt;
+   &lt;li&gt;加入橄欖油，以5 分/120°C/速度 1爆香。&lt;/li&gt;
+   &lt;li&gt;加入香菇、蘑菇和鴻喜菇，以5 分/120°C//速度 拌炒。&lt;/li&gt;
+   &lt;li&gt;加入義大利米，不需蓋上量杯，以3 分/100°C//速度 1拌炒。&lt;/li&gt;
+   &lt;li&gt;加入蔬菜高湯，不需蓋上量杯，以14 分/100°C//速度 1烹煮。&lt;/li&gt;
+   &lt;li&gt;加入松露醬、帕瑪森起士和鹽，不需蓋上量杯，以2 分/100°C//速度 1烹煮，盛入大碗內，撒上匈牙利辣紅椒粉，即可享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑松露醬將使這道燉飯帶有特殊的風味，如果想省略，可以將帕瑪森起士的份量改為50克作為取代。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+將所有配料和調味料的風味通通加入主鍋煨煮,再讓湯汁吸收至斜
+g,充滿著豐富蕃茄滋味的斜管麵,只需要二個步驟就
+上桌,做出獨特風味料理就是如此簡單!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西班牙臘腸蕃茄斜管麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TGDgVe8XHbA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 克 紅蔥頭; 10 克 洋蔥; 20 克 橄欖油; 30 克 新鮮香菇 ，去蒂頭，切條; 30 克 蘑菇 ，切片; 55 克 鴻喜菇 ， 去根部，剝散; 100 克 義大利米 (約15-16分鐘烹煮時間); 300 克 蔬菜高湯或 300 克 水; 30 克 黑松露醬; 20 克 帕瑪森起士粉 (新鮮現磨); ¼ 茶匙 鹽; ½ 茶匙 匈牙利辣紅椒粉 (非必選)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 克 橄欖油; 1 塊 雞高湯塊 ，剝碎; 1 小撮 大蒜粉 (非必選); 1 茶匙 乾燥奧勒岡; 100 克 西班牙臘腸 ，切片或 100 克 培根丁; 80 克 新鮮蘑菇 ，切片 (非必選); 300 克 蕃茄醬 (自製或市售); 600 克 水; 300 克 斜管麵 (如: Penne)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將橄欖油、雞高湯塊、大蒜粉、乾燥奧勒岡、西班牙臘腸、新鮮蘑菇、蕃茄醬和水放入主鍋，以7 分/100°C//速度 烹煮。&lt;/li&gt;
+   &lt;li&gt;加入斜管麵，以依包裝指示選擇時間/100°C//速度 烹煮，取出放入盤內，趁熱享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焗烤蕃茄斜管麵:將煮好的料理放入烤皿，撒上50克帕瑪森起士粉並放入預熱至180℃的烤箱中烘烤直到起士融化或呈現金黃色即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+利用美善品恆溫烹調拌炒花椰菜,不用自己翻炒,更不用吸油煙,輕輕松松炒出一盤營養不流失且色澤翠綠的花椰菜,可依照您喜愛的口感設定拌炒時間,又可以吃到花椰菜本身的甘甜滋味!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒花椰菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Qyggup4AO8o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 克 油; 15 克 薑 ，切絲; ¼ 茶匙 鹽; 50 克 水; 300 克 綠花椰菜 ，切小朵(約2公分)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將油和薑放入主鍋，以3 分/120°C/速度 爆香。&lt;/li&gt;
+   &lt;li&gt;加入鹽、水和花椰菜，以6 分/120°C//速度 1拌炒，取出盛入盤內，趁熱享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+清甜爽脆的高麗菜是餐桌上的家常菜色,用美善品的恆溫烹調保留食物的原味及營養,先放梗再放葉使之均勻受熱,也可以加入不同調味料與配料出各式各樣的高麗菜料理,讓全家人享用無比幸福的滋味!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒高麗菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ou1otVxJlH8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 克 油; 10 克 薑 ，切片或 10 克 蒜頭 ，切片; 50 克 紅蘿蔔 ，去皮、切片; 300 克 高麗菜 ，切塊(詳見要訣); 30 克 新鮮黑木耳 ，切條; ¼ 茶匙 鹽; ¼ 茶匙 白胡椒粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將油和薑片放入主鍋，以3 分/120°C/速度 1爆香。&lt;/li&gt;
+   &lt;li&gt;加入紅蘿蔔和高麗菜，不需蓋上量杯，以5 分/Varoma//速度 1拌炒。&lt;/li&gt;
+   &lt;li&gt;加入黑木耳、鹽和白胡椒粉，不需蓋上量杯，以3-5 分/Varoma//速度 1拌炒，依個人喜好蔬菜的口感可延長2分鐘拌炒時間。取出盛入盤內，即可享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梗應切比較小段(約3公分)，葉的部分可以切較大塊(約5公分)，放高麗菜的順序為先放梗再放葉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+利用紙包的方式料理能吃到最原始的鮭魚風味,簡單的清蒸就超級美味!搭配清爽和風醬汁,吃一口立刻感受海味十足。料鮮味美的和風蒸鮭魚,只需短短幾分鐘美善品就能讓您優雅上菜!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和風蒸鮭魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dCDzEqoGdaY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 片 新鮮鮭魚片 (每片約200克，厚約2公分); 10 克 嫩薑 ，切絲; 2 根 芹菜 ，取莖，切段; 2 枝 蔥 ，切絲;  2 朵 乾香菇 ，泡軟，切絲; 20 克 洋蔥 ，切絲; 6 顆 小蕃茄 ，切半; 2 茶匙 味醂; 2 茶匙 清酒; 2 大匙 日式醬油; ½ 茶匙 烹大師鰹魚粉 (非必選); 500 克 水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將鮭魚片分別放在2張烘焙紙上(約30x30公分)。在鮭魚上分別均勻擺上薑絲、芹菜莖、蔥絲、乾香菇、洋蔥和小蕃茄，淋上味醂、清酒、日式醬油、烹大師鰹魚粉，將紙包魚完整封好，開口面朝上，兩端向下折起，一包放入蒸鍋，另一包放入蒸盤。&lt;/li&gt;
+   &lt;li&gt;將水放入主鍋，架上蒸鍋組，以20 分/Varoma/速度 1蒸煮，取下蒸鍋組，小心取出紙包，趁熱享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+運用美善品恆溫拌炒的功能可將草蝦的鮮甜鎖在蝦肉裡,拌炒蔥薑入味,再加上簡單的調味,四個步驟就能完成餐桌上讓人食指大動的香噴噴家常菜色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家常蔥爆蝦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fm1imPL0pUQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 茶匙 油; 10 克 薑 ，切片; 2 根 蔥 ，切段，分蔥白和蔥綠; 300 克 草蝦 ，剪去頭鬚腳，去腸泥; 1 大匙 米酒; 1 茶匙 鹽; 1 根 新鮮紅辣椒 ，切斜片 (非必選)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將油、薑和蔥白放入主鍋，以3 分/120°C/速度 1爆香。&lt;/li&gt;
+   &lt;li&gt;加入草蝦，以3 分/100°C//速度 1拌炒。&lt;/li&gt;
+   &lt;li&gt;加入米酒，以3 分/Varoma//速度 1拌炒。&lt;/li&gt;
+   &lt;li&gt;加入鹽、蔥綠和新鮮辣椒，不需蓋上量杯，以2 分/Varoma//速度 1拌炒，趁熱享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+以南瓜作為湯底,加入海鮮和豆腐一同烹煮,海鮮的鮮味與南瓜的甜味充份融合,用美善品輕鬆完成這道營養豐富的暖胃煲湯!也可淋在飯上或是搭配中式麵條、義大利麵條,讓您和家人享用媲美餐廳的精緻料理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜海鮮豆腐煲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LUXcUncCiIs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將800克水放入主鍋，置入網鍋，在網鍋內放入南瓜，以28 分/Varoma/速度 1蒸煮，用刮刀棒輔助將網鍋取出，置於一旁備用。&lt;/li&gt;
+   &lt;li&gt;將蝦仁、生干貝、花枝和米酒放入主鍋內，以3 分/100°C//速度 烹煮去腥味，將海鮮取出放入碗內。清空主鍋。&lt;/li&gt;
+   &lt;li&gt;將油和洋蔥放入主鍋，以5 秒/速度 5切碎，再以5 分/120°C/速度 1爆香。&lt;/li&gt;
+   &lt;li&gt;加入300克水和蒸好的南瓜，以6 分/100°C/速度 1烹煮，再以1 分/速度 5調合。&lt;/li&gt;
+   &lt;li&gt;插入蝴蝶棒，加入燙好的海鮮、鹽和雞蛋豆腐，以7 分/100°C//速度 烹煮，盛入大碗，撒上黑胡椒粉和香菜，趁熱享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+熱炒的經典料理也可以成為您家中的家常菜色,在煮醬汁的同時蒸煮海瓜子,最後加入九層塔拌炒,家有美善品想吃熱炒料理再也不用滿頭大汗,讓您優雅上菜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔香海瓜子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100 克 水 (含蒸煮和料理用); 250 克 南瓜 ，去皮去籽，切片; 150 克 蝦仁 ，去腸泥; 50 克 小干貝; 250 克 花枝 清洗去除內臟，切片; 1 ½ 茶匙 米酒; 15 克 油; 175 克 洋蔥 ，切塊; 1 茶匙 鹽; 300 克 雞蛋豆腐 ，切塊(1公分); 2 小撮 黑胡椒粉 新鮮香菜 ，少許，只取葉子，裝飾用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 克 蒜頭
+10 克 薑
+1 根 新鮮紅辣椒 ，切段
+10 克 香油; 10 克 蔥 ，切段; 2 茶匙 米酒; 1 大匙 醬油膏; 1 茶匙 烏醋; ½ 茶匙 糖; 30 克 水; 400 克 海瓜子 ，吐沙，刷洗乾淨或 400 克 新鮮蛤蜊，已吐沙 ，刷洗乾淨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將蒜頭、薑和辣椒放入主鍋，以5 秒/速度 5切碎，利用刮刀棒將材料刮至主鍋底。&lt;/li&gt;
+   &lt;li&gt;加入香油，以5 分/120°C/速度 1爆香。&lt;/li&gt;
+   &lt;li&gt;加入蔥、米酒、醬油膏、烏醋、糖和水，置入網鍋，在網鍋內放入海瓜子，以15 分/Varoma/速度 1蒸煮，利用刮刀棒輔助將網鍋取出，將海瓜子盛入盤内。&lt;/li&gt;
+   &lt;li&gt;加入九層塔至主鍋內，以1 分/100°C/速度 2拌炒，將醬汁淋在海瓜子上，拌勻後趁熱享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做法3中，確認海瓜子是否蒸熟，若有需要可先將蒸熟的海瓜子取出，未蒸熟的留在網鍋內，再以5分/Varoma/速度1蒸煮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+本食譜選用魷魚、花枝、蝦仁這三種海鮮組合,搭配蔬菜快速拌炒,色彩豐富又香氣四溢讓人不禁水直流。簡單的調味就能帶出海鮮的甘甜鮮美,這道色香味俱全的佳餚絕對會是餐桌上的人氣料理!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒三鮮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=78P_KV290p0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 克 蒜頭; 10 克 新鮮紅辣椒 ，切段; 20 克 油; 30 克 紅蘿蔔 ，去皮，切片; 75 克 乾魷魚 (約1隻)，以清水泡發，切片; 200 克 花枝 ，清洗去除內臟，切片; 100 克 草蝦仁 ，開背去腸泥; 1 茶匙 糖;I 1 茶匙 魚露; 110 克 小黃瓜(約1根)，切片; 20 克 蔥 ，切段; 1 茶匙 鹽; ¼ 茶匙 白胡椒粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將蒜頭和紅辣椒放入主鍋，以3 秒/速度 5切碎，用刮刀棒將材料刮至主鍋底。&lt;/li&gt;
+   &lt;li&gt;加入油和紅蘿蔔放入主鍋，以3 分/120°C/速度 爆香。&lt;/li&gt;
+   &lt;li&gt;加入魷魚、花枝和草蝦仁，不需蓋上量杯，以4 分/Varoma//速度 拌炒。&lt;/li&gt;
+   &lt;li&gt;加入糖、魚露和小黃瓜，不需蓋上量杯，以1 分/Varoma//速度 拌炒。&lt;/li&gt;
+   &lt;li&gt;加入蔥、鹽和白胡椒粉，不需蓋上量杯，以1 分/Varoma//速度 拌炒，取出盛入盤內，趁熱享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+將蒸雞腿滴出的雞汁調味成醬汁,淋在香噴噴的雞腿上,微微的辣味刺激著味蕾,好吃地讓人不禁垂涎三尺,依照個人口味調整醬汁的辣度也别有風味,是一道非常開胃的家常川菜料理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口水雞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=85ERjjQF5sA&amp;t=26s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將薑、蔥段和雞腿排放入瓷盤，將蒸架和瓷盤放入蒸鍋內備用。&lt;/li&gt;
+   &lt;li&gt;將水放入主鍋，架上蒸鍋組，以30-35 分/Varoma/速度 1蒸煮，取下蒸鍋組和瓷盤。清空主鍋。&lt;/li&gt;
+   &lt;li&gt;將瓷盤內的雞汁、蒜頭、紅辣椒油、醬油、醋、冰糖粉、乾辣椒碎片和米酒放入主鍋，以5 分/Varoma/速度 1烹煮，將醬汁淋在雞腿上，灑上香菜，即可享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+將醃好的排骨用烤箱烤至酥脆金黃,再與炒好的醬汁拌勻,酸酸甜甜的糖醋排骨肯定一上桌就被掃盤!不需開火油炸,一樣吃得到如同在餐廳享用的口感和風味!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖醋排骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JJfksT1k6Us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 片 薑; 1 根 蔥 ，切段; 1 - 2 隻 去骨雞腿排 ，切塊
+600 克 水; 2 粒 蒜頭 ，拍碎; 3 大匙 紅辣椒油; 1 大匙 醬油; 1 茶匙 醋; 1 茶匙 冰糖粉; 1 茶匙 乾辣椒碎片; 1 茶匙 米酒; 5 克 新鮮香菜 ，切碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600 克 豬小排 ，切段(約3公分); 2 茶匙 米酒; 1 顆 蛋黃; 40 克 醬油; 20 克 油; 1 ½ 大匙 太白粉; 3 大匙 地瓜粉; 100 克 洋蔥 ，切塊(約3公分); 10 克 蔥 ，切段(約3公分); 200 克 綜合甜椒 ，切塊(約3公分); 30 克 二砂糖; 30 克 白醋; 50 克 水; 30 克 蕃茄醬; ¼ 茶匙 鹽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將排骨、米酒、蛋黃、醬油和10克油放入碗內，混合抓勻後，再加入太白粉拌勻， 靜置醃漬30分鐘。此時， 將烤箱預熱至180℃。&lt;/li&gt;
+   &lt;li&gt;將醃好的排骨均勻沾裹地瓜粉，放入鋪有烘焙紙的烤盤內，放入烤箱以180℃烤約20分鐘，將排骨翻面再續烤10分鐘，取出置於一旁冷卻備用。&lt;/li&gt;
+   &lt;li&gt;將10克油、洋蔥和蔥放入主鍋，以3 分/Varoma/速度 1拌炒&lt;/li&gt;
+   &lt;li&gt;加入綜合甜椒、黃糖、白醋、水、蕃茄醬和鹽，不需蓋上量杯，以5-7 分/Varoma/速度 1拌炒，依收汁程度可延長2分鐘拌炒時間，取出與烤好的排骨拌勻，趁熱享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本食譜利用烘烤的方式製作炸排骨，您可利用油鍋將沾裹好地瓜粉的排骨，以180°C的油溫炸排骨，炸至呈現均勻金黃色即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+將豬肉絲用甜麵醬拌炒,油亮光澤中帶著鹹甜的滋味,搭配蔥絲一同享用,新鮮蔥絲的辛辣和鹹香豬肉絲,也可搭配餡餅或是餅皮,一道傳統的北京菜色躍然在您家的餐桌上呈現。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京醬肉絲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IyavCwqWAXw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 克 豬里肌肉 ，切絲(約0.5公分×5公分)
+1 茶匙 糖; 2 茶匙 醬油; 2 茶匙 米酒; 10 克 油; 1 - 1 ½ 大匙 甜麵醬 ，依個人口味調整; ¼ 茶匙 烏醋; ½ 茶匙 白胡椒粉; 8 枝 蔥 ，切絲，泡水後瀝乾; 1 枝 新鮮紅辣椒 ，去籽，切絲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將里肌肉絲、糖、醬油和米酒放入碗中，拌勻後靜置備用。&lt;/li&gt;
+   &lt;li&gt;將油放入主鍋，以2 分/Varoma/速度  加熱。&lt;/li&gt;
+   &lt;li&gt;加入醃過的里肌肉絲，蓋上防濺蓋，以高溫模式 拌炒。&lt;/li&gt;
+   &lt;li&gt;加入甜麵醬、烏醋和白胡椒粉，以2 分/Varoma/速度 拌炒，將蔥絲鋪在盤中，盛入肉絲，擺上辣椒絲，即可享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由於高溫模式可能會導致食材沾黏於主鍋底部，可於完成食譜後清空主鍋，加入2000克水，蓋上主鍋蓋和量杯，選擇清潔  進行清潔，如一次無法清除，可重覆操作直到食材能夠輕鬆去除，再依個人習慣清洗主鍋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-81.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-82.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-83.jpg</t>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-84.jpg</t>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-85.jpg</t>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-86.jpg</t>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-87.jpg</t>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-88.jpg</t>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-89.jpg</t>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-90.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+將巧克力切碎之後,再加入可可粉、牛奶等食材烹煮成濃厚的巧克力漿,放入冰箱冷凍之後,再攪打成為滑順口感的冰淇淋,透過自己選用的食材,絕對比坊間的更為健康、好吃!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力冰淇淋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8BUQefg1jLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 克 黑巧克力(70% 可可含量) ，切塊; 50 克 可可粉; 400 克 全脂牛奶; 200 克 鮮奶油 (脂肪含量約30%); 150 克 糖; 4 顆 蛋黃; 1 小撮 鹽 (非必選)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將黑巧克力放入主鍋，以5 秒/速度 8切碎，利用刮刀棒將材料刮至主鍋底。&lt;/li&gt;
+   &lt;li&gt;加入可可粉、全脂牛奶、鮮奶油、糖、蛋黃和鹽，以8 分/90°C/速度 2烹煮，將混合物倒入4公分高的容器中，容器必須可以冷凍(如:塑膠、矽膠)，以保鮮膜覆蓋，靜置混合物至完全冷卻再放入冷凍庫中至少10小時。&lt;/li&gt;
+   &lt;li&gt;將冷凍的混合物放入冰箱冷藏15分鐘，再以長尖刀切塊(大約4公分x4公分)。將一半的巧克力牛奶冰塊放入主鍋，以20 秒/速度 6打碎，插入刮刀棒以輔助攪拌，再以10 秒/速度 4混合，將冰淇淋裝入碗中。&lt;/li&gt;
+   &lt;li&gt;將剩下的巧克力牛奶冰塊放入主鍋，以20 秒/速度 6打碎，插入刮刀棒以輔助攪拌，再以10 秒/速度 4混合，將冰淇淋裝入碗中立即享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在享用前可將冰淇淋放入冷凍庫冷凍15分鐘，口感更加滑順。
+可以使用開心果碎、椰子片或是巧克力淋醬來裝飾冰淇淋。&lt;br&gt;
+頂端可以放上打發的鮮奶油、巧克力或是水果醬汁。
+可以在做法1中加入凱宴辣椒粉做出帶有辣味的巧克力冰淇淋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+透過自己熬煮的蜜紅豆,再與牛奶冰塊一起攪打出的紅豆冰淇淋,每一口都可以吃到蜜紅豆的香氣,是您夏日消暑的最佳選擇,可以將冰淇淋先打好,放入盒內冷凍,想吃的時候,直接挖球享用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅豆冰淇淋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fs1a4Kafg5A&amp;t=14s</t>
+  </si>
+  <si>
+    <t>400 克 牛奶; 100 克 冰糖粉; 5 顆 蛋黃; 200 克 鮮奶油 (脂肪含量約30%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將牛奶、冰糖粉、蛋黃和鮮奶油放入主鍋，以8 分/80°C/速度 2烹煮，取出放入碗內，冷卻後倒入製冰盒，放入冷凍庫至少10個小時。&lt;/li&gt;
+   &lt;li&gt;將牛奶冰塊和蜜紅豆放入主鍋，以30 秒/速度 6打碎，用刮刀棒將材料刮至主鍋底，再以30 秒/速度 3攪打，取出放入大碗內，放入冰箱冷凍2-3小時後，即可享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以自行調整蜜紅豆和牛奶冰塊的比例，做出紅豆風味更濃郁的冰淇淋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+利用綜合水果、果汁和冰塊調合成的冰沙,清涼爽口的滋味保證大人小孩都會愛上,依您選擇的水果可變化不同口味,或是參考「變化」中的建議嚐試,一起玩出不同風味的冰沙!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lK_xv2aiO_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350 - 450 克 新鮮綜合水果 ，切塊; 200 - 300 克 綜合果汁 (如:蘋果、柳橙、葡萄、鳳梨、蔓越莓)或 200 - 300 克 水; 50 克 冰塊; 20 - 30 克 檸檬汁 (非必選); 1 大匙 糖 (非必選)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將新鮮綜合水果、果汁、冰塊、檸檬汁和糖放入主鍋，以5 秒/速度 5切碎，再以1 分/速度 10調合，立即享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用熟成的水果可以獲得最佳的風味，如果水果缺乏甜味，則需要加入被省略的糖。
+檸檬汁可以幫助保持顏色鮮亮且增進水果的風味。
+可以用冷凍水果來取代新鮮水果，如果使用冷凍水果，按照需求切塊並且鋪平在盤中，放入冰箱冷凍，再依照食譜敘述使用，或是放入保冰袋中稍後使用。
+如果使用的是完全冷凍的水果，先將水果部分解凍並且省略冰塊。&lt;br&gt;
+如果選用的是含有大量水分的水果，像是：哈密瓜或是西瓜，則要增加水果的份量至500克並減少果汁的份量至150克。&lt;br&gt;
+如果選用的是口感較為濃厚、水份較少的水果，像是香蕉，則需要減少水果的份量至350克並增加果汁的份量至300克。&lt;br&gt;&lt;br&gt;
+建議組合:&lt;br&gt;
+哈密瓜、蘋果、柳橙汁&lt;br&gt;
+桃子、蘋果、香蕉、葡萄汁&lt;br&gt;
+梨子、香蕉、蘋果汁&lt;br&gt;
+芒果、覆盆子、蘋果汁&lt;br&gt;
+鳳梨、李子、柳橙汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+在台灣,炎熱酷暑的夏日就是盛產芒果的季節,自己特製芒果雪泥消暑又安心!芒果和原味優格交融出不一樣的新滋味,酸酸甜甜既清爽又無負擔!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果雪泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ULCCEF9824Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 克 芒果 ，去皮、去籽，切塊; 30 克 冰糖粉; 300 克 原味優格; 10 克 檸檬汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將芒果放入主鍋，以30 秒/速度 5-10漸速切碎，利用刮刀棒將芒果肉刮至主鍋底。&lt;/li&gt;
+   &lt;li&gt;加入冰糖粉、原味優格和檸檬汁，以1 分/速度 5-10漸速調合，取出倒入製冰盒內，放入冰箱冷凍至少5小時。&lt;/li&gt;
+   &lt;li&gt;將芒果冰塊從製冰盒取出放入主鍋內，插入刮刀棒以輔助攪拌，以30 秒/速度 6攪打，取出盛入杯中，即可享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1599,10 +2088,10 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2440,292 +2929,528 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="64">
+    <row r="30" spans="1:9" ht="240">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="E30" s="2" t="s">
-        <v>100</v>
+        <v>270</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="64">
+      <c r="I30" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="128">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="E31" s="2" t="s">
-        <v>100</v>
+        <v>277</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="64">
+      <c r="I31" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="112">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C32" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="E32" s="2" t="s">
-        <v>100</v>
+        <v>283</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="64">
+      <c r="I32" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="160">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="E33" s="2" t="s">
-        <v>100</v>
+        <v>288</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="64">
+      <c r="I33" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="176">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C34" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="E34" s="2" t="s">
-        <v>100</v>
+        <v>294</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="64">
+      <c r="I34" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="176">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C35" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="E35" s="2" t="s">
-        <v>100</v>
+        <v>299</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="64">
+      <c r="I35" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="240">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C36" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="E36" s="2" t="s">
-        <v>100</v>
+        <v>303</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="64">
+      <c r="I36" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="192">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="E37" s="2" t="s">
-        <v>100</v>
+        <v>308</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="64">
+    <row r="38" spans="1:9" ht="208">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C38" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="E38" s="2" t="s">
-        <v>100</v>
+        <v>314</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="64">
+      <c r="I38" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="176">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C39" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="E39" s="2" t="s">
-        <v>100</v>
+        <v>318</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="64">
+      <c r="I39" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="240">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C40" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="E40" s="2" t="s">
-        <v>100</v>
+        <v>324</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="64">
+      <c r="I40" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="176">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C41" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="E41" s="2" t="s">
-        <v>100</v>
+        <v>330</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="64">
+      <c r="I41" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="288">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="E42" s="2" t="s">
-        <v>100</v>
+        <v>346</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="64">
+        <v>332</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="160">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>352</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="64">
+        <v>333</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="350">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>358</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="64">
+        <v>334</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="160">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="E45" s="2" t="s">
-        <v>100</v>
+        <v>364</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="64">
+        <v>335</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="64">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E46" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="64">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="64">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E47" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="64">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="64">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="B48" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E48" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>85</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="64">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="B49" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E49" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>86</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="64">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="B50" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E50" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>87</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="64">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E51" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="B53" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="B54" s="1" t="s">
-        <v>90</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2758,6 +3483,20 @@
     <hyperlink ref="I27" r:id="rId20" xr:uid="{BC8DF1A3-1071-A940-A2BB-BFFFEBCBAA76}"/>
     <hyperlink ref="I28" r:id="rId21" xr:uid="{027792F7-F09B-F943-A8FB-E7F45A501098}"/>
     <hyperlink ref="I29" r:id="rId22" xr:uid="{B5E112C7-EAFF-9240-B957-50A4FD86398A}"/>
+    <hyperlink ref="I30" r:id="rId23" xr:uid="{89E64CE6-7B62-D744-8042-DE11A6B14732}"/>
+    <hyperlink ref="I31" r:id="rId24" xr:uid="{21C8C806-57CC-D84A-B1F7-E9819D01D5FC}"/>
+    <hyperlink ref="I32" r:id="rId25" xr:uid="{1D71B124-BC60-0846-B327-C3E5A02E5AC1}"/>
+    <hyperlink ref="I33" r:id="rId26" xr:uid="{D0FA60ED-1386-DE46-9F15-3F7C8821DE87}"/>
+    <hyperlink ref="I34" r:id="rId27" xr:uid="{39268E12-8B07-FC4C-8AA2-D45C9085EE57}"/>
+    <hyperlink ref="I35" r:id="rId28" xr:uid="{8D9F0EC0-00EF-8641-BC91-FDF9E481F93C}"/>
+    <hyperlink ref="I36" r:id="rId29" xr:uid="{97A365BC-20E0-224B-888A-934848DF7BE8}"/>
+    <hyperlink ref="I38" r:id="rId30" xr:uid="{F783C34C-8E4D-594C-8C07-A2C83118BA65}"/>
+    <hyperlink ref="I39" r:id="rId31" xr:uid="{FCAEEC44-014A-934A-B577-A79A1E4B02CC}"/>
+    <hyperlink ref="I40" r:id="rId32" xr:uid="{DFBC70B8-4453-494B-8DAF-C3128B9A3DD6}"/>
+    <hyperlink ref="I41" r:id="rId33" xr:uid="{88A01D05-3B0A-564B-9AD4-9DBA8E5C47BD}"/>
+    <hyperlink ref="I42" r:id="rId34" xr:uid="{EAA663FF-C55A-5944-8E42-E25D9E683A6E}"/>
+    <hyperlink ref="I44" r:id="rId35" xr:uid="{7FA15030-A99D-7743-AA0C-43BD74F08638}"/>
+    <hyperlink ref="I45" r:id="rId36" xr:uid="{37684256-621C-BE4F-8EC6-8AAFB8D92E7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-83-Cookidoo.xlsx
+++ b/db/AiCity-83-Cookidoo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB83491-00B7-7448-9DD4-3877C94E9479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527D8385-423A-3A48-B639-B298A3777F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18320" yWindow="1060" windowWidth="30900" windowHeight="22260" xr2:uid="{7AFFD4FF-400A-AD42-A8A1-055581E3B5DC}"/>
+    <workbookView xWindow="8540" yWindow="1420" windowWidth="30900" windowHeight="22260" xr2:uid="{7AFFD4FF-400A-AD42-A8A1-055581E3B5DC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="459">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,13 +364,6 @@
   </si>
   <si>
     <t>300 克 藍莓 (冷凍或新鮮皆可)，稍微沖洗後瀝乾; 150 克 冰糖粉; 10 克 檸檬汁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;ol&gt;
-   &lt;li&gt;&lt;/li&gt;
-   &lt;li&gt;&lt;/li&gt;
-&lt;/ol&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1699,6 +1692,471 @@
    &lt;li&gt;加入冰糖粉、原味優格和檸檬汁，以1 分/速度 5-10漸速調合，取出倒入製冰盒內，放入冰箱冷凍至少5小時。&lt;/li&gt;
    &lt;li&gt;將芒果冰塊從製冰盒取出放入主鍋內，插入刮刀棒以輔助攪拌，以30 秒/速度 6攪打，取出盛入杯中，即可享用。&lt;/li&gt;
 &lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提拉米蘇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wQhry7ykPA8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 顆 蛋; 1 顆 蛋黃; 130 克 冰糖粉; 500 克 瑪斯卡澎乳酪; 300 克 手指餅乾; 300 - 400 克 濃縮黑咖啡 ，冰的; 20 克 可可粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;插入蝴蝶棒，將蛋、蛋黃和冰糖粉放入主鍋，以6 分/速度 4打發，取出蝴蝶棒。&lt;/li&gt;
+   &lt;li&gt;以2 分/速度 3混合，同時，用湯匙挖取瑪斯卡澎乳酪，分次透過主鍋蓋孔加至主鍋內，使乳酪直接掉至攪拌刀組上。&lt;/li&gt;
+   &lt;li&gt;將手指餅乾稍微浸泡一下冷咖啡，使手指餅乾吸進剛好足量的咖啡卻不會斷裂。將一半浸過咖啡的手指餅乾鋪排在方型容器內(30公分x20公分x6公分)，接著塗抹一半的瑪斯卡澎乳酪混合物，再覆蓋一層剩餘的手指餅乾，再將剩下的瑪斯卡澎乳酪全部塗抹在餅乾上。蓋上保鮮膜並冷藏5小時。撒上可可粉後即可享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用50克利口酒(如:杏仁酒、干邑白蘭地、蘭姆酒)來取代50克的咖啡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+大人小孩都喜歡吃的焦糖布丁,利用100蒸煮的方式做出零氣孔的外表,烘焙新手也能輕易作出極具賣相的精緻甜點!口感滑嫩綿密帶著微苦焦糖味,冷藏過後,風味香濃,讓您味覺大滿足!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦糖布丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+提拉米蘇為義大利經典的甜點,原文的意思是「帶我走」,帶走的不只是美味,還有愛和幸福;將打至蓬松的蛋和瑪斯卡澎拌勻後與泡過濃縮咖啡的手指餅乾一層一層堆疊,冷藏後以湯匙挖取享用,香軟滑順滿滿幸福滋味融在口中!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TMy9-Zcy9WQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 - 80 克 冰糖 ，依個人口味調整; 300 克 全脂牛奶; 3 顆 蛋; 100 克 焦糖醬 (詳見要訣); 300 克 水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;準備6-8個耐熱玻璃杯或陶瓷杯(容量約90毫升)可以放入蒸鍋內並可蓋上蒸鍋蓋，置於一旁備用。&lt;/li&gt;
+   &lt;li&gt;將冰糖放入主鍋，以10 秒/速度 10研磨，用刮刀棒將材料刮至主鍋底。&lt;/li&gt;
+   &lt;li&gt;加入全脂牛奶和蛋，以15 秒/速度 3.5混合。&lt;/li&gt;
+   &lt;li&gt;在每個杯子內放入1-2大匙焦糖漿，將蛋液平均倒入玻璃杯內，蓋上鋁箔紙或耐熱保鮮膜，在蒸鍋內放入蒸架，將玻璃杯放入蒸鍋內，蓋上蒸鍋蓋備用。清洗主鍋。&lt;/li&gt;
+   &lt;li&gt;將水放入主鍋，以6 分/100°C/速度 1加熱。&lt;/li&gt;
+   &lt;li&gt;架上蒸鍋組，以14-16 分/Varoma/速度 1蒸煮，用牙籤確認布丁是否蒸熟，如有需要可延長2分鐘蒸煮時間。&lt;/li&gt;
+   &lt;li&gt;取下蒸鍋組，置於室溫冷卻後放入冰箱冷藏至少1小時或隔夜，布丁會較容易脫模，將玻璃杯倒扣在盤子上輕輕將焦糖布丁敲下，並小心移開玻璃杯，立即享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以做出屬於您個人口味的液態焦糖，將100克糖、1大匙水和1茶匙檸檬汁放入乾淨的中型鍋，以中火加熱，不要攪拌但需偶爾搖晃，直到糖變成深琥珀色，此時小心地加入100克的熱水(此時會產生泡泡並稍微噴濺)，繼續以中火加熱並攪拌直到焦糖全部溶解。這道糖漿可以放入冰箱冷藏保存數週。&lt;br&gt;
+焦糖漿需等完全冷卻才可倒入蛋液。
+如果使用較厚的玻璃杯，則需延長5-10分鐘的蒸煮時間。&lt;br&gt;&lt;br&gt;
+可利用小刀輕輕沿著杯子周圍畫一圈再脫模。
+想要做出大份量的焦糖布丁， 可以將食材份量加倍並放入烤箱以140℃隔水加熱法烘烤1小時20分鐘。
+隔水加熱法：將填好的玻璃杯放在深烤盤內，將深盤放入烤箱中間處，並將熱水注入深烤盤內至瓶子的3/4處。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+煮到軟透的芋頭加上晶瑩Q彈的西米露,淡淡的椰香,讓您不管冷的熱的通通都好喝,跟著美善品步驟,在家就能輕松煮出一大鍋好吃不甜膩的甜湯!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芋頭西米露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5i_30BU8BQo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1900 克 水; 300 克 芋頭 ，切塊(約3公分); 100 克 西谷米 冷開水 ，適量，沖洗西米露用; 200 克 椰奶; 50 克 細砂糖 ，依個人喜好調整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將1500克水放入主鍋，架上蒸鍋組，將芋頭放入蒸鍋內，以15 分/Varoma/速度 1蒸煮， 取下蒸鍋組，置於一旁備用。&lt;/li&gt;
+   &lt;li&gt;加入西谷米，以4 分/100°C/速度 1烹煮，將西谷米靜置於主鍋內燜10分鐘。將西谷米利用篩網濾出，以冷水沖洗後，置於一旁備用。&lt;/li&gt;
+   &lt;li&gt;將400克水、椰奶和蒸好的芋頭放入主鍋，以8 分/100°C/速度 1烹煮。&lt;/li&gt;
+   &lt;li&gt;加入煮好的西谷米和細砂糖，以5 分/100°C/速度 1烹煮，即可享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若想要保留芋頭的口感，可以留取少許蒸好的芋頭，再於做法4中加入即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+芝麻核桃富含多種營養素,加上糯米粉熬煮成濃稠的糊狀,融合出溫潤的核果香氣。除了作為下午茶點心之外,香濃滑順又暖胃也非常適合當作早餐享用,您可依個人喜好加入不同的堅果,口感風味更獨特又能補足更豐富的營養!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻核桃糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9UXAB-DRCZQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 克 糯米 (長、圓皆可)，洗淨，瀝乾;1200 克 水; 250 克 核桃; 100 克 黑芝麻; 30 克 糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將糯米和500克水放入大碗內，浸泡2小時。將烤箱預熱至170°C。&lt;/li&gt;
+   &lt;li&gt;將核桃和黑芝麻放入烤箱以170°C烘烤15分鐘，取出備用。&lt;/li&gt;
+   &lt;li&gt;將700克水、烤好的核桃和黑芝麻、泡好的糯米和糯米水放入主鍋，以2 分/速度 10調合。&lt;/li&gt;
+   &lt;li&gt;加入糖，以15 分/100°C/速度 1烹煮，再以1 分/速度 10調合，趁熱享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以依個人喜好的口感，於做法4中添加額外的水量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+希臘咖啡(Frpp)是在冰咖啡上加上一層綿密的奶泡,剛入口時,鸣先感受到柔滑的奶香味,接著是醇厚的咖啡風味,多層次的口感很商合在夏日飲用;也可以在咖啡中加入咖啡酒、奶酒,甚至泡上加上一球香草冰淇淋,多樣的變化,等您來品嚐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希臘咖啡</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yoYiSyf6k9M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰塊 ，少許; 2 - 3 茶匙 即溶咖啡; 30 克 冰糖粉; 100 克 冷開水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將冰塊放入杯內備用。&lt;/li&gt;
+   &lt;li&gt;插入蝴蝶棒，加入即溶咖啡、冰糖粉和冷開水，以2 分/速度 4混合，取出倒入杯內，即可享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+還記得引發搶購風潮的厚奶茶嗎!?利用奶粉和牛奶的比例調出濃厚的奶香味,再加上燜煮出的紅茶,茶香和奶香交融出令人嚮往的風味,午茶時刻,一杯奶茶搭配幾塊小點,您也能享受貴婦般的生活!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚奶茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nVmMijax18M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400 克 水; 10 克 紅茶葉; 2 大匙 二砂糖; 2 大匙 奶粉; 200 克 牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將水放入主鍋，以5 分/100°C/速度 1烹煮。&lt;/li&gt;
+   &lt;li&gt;加入紅茶葉，以6 分/90°C/速度 1烹煮。&lt;/li&gt;
+   &lt;li&gt;加入二砂糖和奶粉，以10 秒/速度 1混合。&lt;/li&gt;
+   &lt;li&gt;加入牛奶，以3 秒/速度 1混合，以細孔篩網過濾至壺內，置於室溫冷卻後享用或加入冰塊立即享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0055</t>
+  </si>
+  <si>
+    <t>0056</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+沒時間準備點心或是突然想吃的時候,五樣食材就能快速做出酥脆可口的奶油酥餅,簡單的材料却能帶出最純粹的香甜滋味,趕快來試試!這道絕對是您初入烘焙世界的最佳敲門磚!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶油酥餅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=unaO2dxVVvQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250 克 低筋麵粉; 100 克 糖 ，多備一些沾取用; 100 克 奶油 ，切塊; 1 顆 蛋; 1 茶匙 泡打粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將烤箱預熱至180℃。將烤盤鋪上烘焙紙，置於一旁備用。&lt;/li&gt;
+   &lt;li&gt;將低筋麵粉、糖、奶油、蛋和泡打粉放入主鍋，以20 秒/速度 6混合。&lt;/li&gt;
+   &lt;li&gt;將一大匙的麵糰搓成球狀(Ø約3公分)，在頂端沾上少許的糖，放入備好的烤盤上，用叉子將麵糰壓成圓形餅乾，重複操作所有的麵糰，放入烤箱以180℃烤20分鐘或直到呈現淡黃色，將烤好的餅乾放置於網架上冷卻，立刻享用或是保存於保鮮盒內。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在做法2中，加入香草糖、檸檬皮屑、柳橙皮屑、肉桂粉或是薑糖碎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-91.jpg</t>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-92.jpg</t>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-101.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-102.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-103.jpg</t>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-104.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+綜合果乾、奶油、麵粉和泡打粉一同混合成蛋糕麵糊,只需要五個步驟就能完成充滿迷人香味的水果磅蛋糕,沏上一壺好茶,配上幾塊蛋糕,悠閒的午後,享受著專屬於您的美好時光!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果磅蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=le-KDWIz5to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 克 奶油 ，切塊，置於室溫軟化，多備一些刷油用; 160 克 冰糖粉; 3 顆 蛋;; 200 克 低筋麵粉; 1 茶匙 泡打粉; 60 克 綜合果乾 (如：葡萄乾、蔓越莓乾、芒果乾)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將烤箱預熱至180℃。將蛋糕模刷上少許奶油，置於一旁備用。&lt;/li&gt;
+   &lt;li&gt;將奶油和冰糖粉放入主鍋，以15 秒/速度 6攪拌。&lt;/li&gt;
+   &lt;li&gt;加入蛋，以15 秒/速度 3拌勻。&lt;/li&gt;
+   &lt;li&gt;加入低筋麵粉、泡打粉和綜合果乾，以30 秒/速度 3-6漸速攪拌，將蛋糕糊倒入預備好的蛋糕模中。&lt;/li&gt;
+   &lt;li&gt;放入烤箱以180℃烘烤30~40分鐘，放涼後切片，即可享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+將特調的醬汁均勻她抹在全雞上,放入冰箱冷藏醃漬,再於全雞內塞入蔬果餡料,送入烤箱烤至表皮金黃,雞肉吸附了蔬果的鮮甜而更為多汁,適合在家族聚餐或派對時刻中享用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香料烤雞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=85ERjjQF5sA&amp;t=43s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 大匙 橄欖油; 120 克 新鮮柳橙汁; 20 克 蒜頭; 1 ½ 大匙 鹽; 2 茶匙 紅椒粉; 1 茶匙 黑胡椒粉; 1 茶匙 乾燥茴香籽; 25 克 烏斯特調味醬; 1 茶匙 乾燥奧勒岡; 1 大匙 糖; 1 隻 全雞; 250 克 蘋果 (任何種類) ，不去皮，切塊(約4公分);; 150 克 洋蔥 ，切塊(約4公分); 80 克 西洋芹 ，切段(約4公分); 100 克 紅蘿蔔 ，切塊(約4公分); 15 粒 小蕃茄 ，對切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將橄欖油、新鮮柳橙汁、蒜頭、鹽、紅椒粉、黑胡椒粉、乾燥茴香籽、烏斯特調味醬、乾燥奧勒岡和糖放入主鍋，不需蓋上量杯，以5 分/Varoma/速度 1烹煮，取出均勻抹在全雞表皮和雞肉內部，包上保鮮膜放入冰箱冷藏50分鐘。清空主鍋。&lt;/li&gt;
+   &lt;li&gt;將烤箱預熱至190°C。&lt;/li&gt;
+   &lt;li&gt;將蘋果、洋蔥、西洋芹和紅蘿蔔放入主鍋，以5 秒/速度 4切碎。取出倒入碗中和小蕃茄混勻，放入醃好的全雞肚子內及烤盤上，放入烤箱以190°C烤45分或至雞肉全熟，放涼後即可享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以將雞肉醃漬隔夜，會更為入味。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+以白菜、乾香菇、竹筍和雞高湯熬成湯底,加上干貝和海藝等海鮮料烹煮,同時,再以蒸鍋蒸煮芋頭和排骨酥,層疊式的煮法,讓您的佛跳牆料多實在,且不會因長時間烹煮而失去原樣,過年時節端上一鍋澎派的佛跳牆,滿足大家的胃!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛跳牆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Tq2MzqfNo5w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 克 油
+10 克 蒜頭
+5 克 新鮮紅辣椒 ，切片 (非必選)
+30 克 蝦米
+20 克 蔥 ，切段
+50 克 米酒
+或 50 克 紹興酒
+400 克 大白菜 (梗切絲，葉切段)
+10 克 乾香菇
+150 克 新鮮竹筍 ，先以滾水川燙去除澀味，切塊
+1000 克 高湯 (雞肉或大骨皆可); 120 克 熟鳥蛋 或黃金魚蛋; 200 克 排骨酥; 300 克 炸芋頭; 20 克 熟白果 (非必選); 300 克 豬腳筋 ，切大段; 50 克 醬油; 20 克 蠔油; 200 克 魚皮 ，切段; 50 克 干貝; 100 克 海蔘 ，切段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將油、蒜頭和紅辣椒放入主鍋內，以4 分/120°C/速度 1爆香。&lt;/li&gt;
+   &lt;li&gt;加入蝦米、蔥和米酒，不需蓋上量杯，以5 分/Varoma/速度 拌炒。&lt;/li&gt;
+   &lt;li&gt;加入白菜梗、乾香菇、竹筍和高湯，以30 分/100°C/速度 烹煮。同時，將鳥蛋和排骨酥放入蒸鍋，將炸芋頭和白果放入蒸盤內備用。&lt;/li&gt;
+   &lt;li&gt;加入白菜葉、蹄筋、醬油和蠔油，架上蒸鍋組，以15 分/Varoma/速度 蒸煮。&lt;/li&gt;
+   &lt;li&gt;小心地取下蒸鍋組，加入魚皮、干貝和海蔘至主鍋內，再重新架上蒸鍋組，以20 分/Varoma/速度 蒸煮，取下蒸鍋組，將主鍋和蒸鍋內的食材放入大碗內，稍微靜置15分鐘，即可享用。&lt;/li&gt;                                                                                                                                                                             
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以依您個人喜好來搭配佛跳牆內的食材。
+靜置目的是將食材的所有風味都能融入在湯中，您也可以馬上享用，但會發現風味會略有不同。
+可以用真空包裝的熟竹筍來取代新鮮竹筍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+滷得油亮呈現琥珀色澤的豬腳,是過年的代表年菜之一,不需傳統油炸的繁複步驟,一鍋到底即可輕松完成。讓您在繁忙的年節時分,不必揮汗如雨優雅做出一桌好菜;豬腳可另外搭配滷好的筍絲或是青江菜,馬上升級成圍爐大菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅燒豬蹄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lYOVrCL_CL8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 大匙 油; 30 克 薑 ，切片; 50 克 蔥 ，切段(約5公分); 30 克 蒜頭; 15 克 新鮮紅辣椒 ，切段(約5公分); 4 - 5 粒 八角; 1000 克 豬腳 ， 切段(約3公分)，先以滾水川燙去血水; 170 克 醬油; 30 克 冰糖j; 50 克 米酒; ¼ 茶匙 白胡椒粉; ¼ 茶匙 五香粉; ½ 茶匙 鹽; 800 克 高湯或 800 克 水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將油、薑、蔥、蒜頭和紅辣椒放入主鍋，以5 分/120°C/速度 1爆香。&lt;/li&gt;
+   &lt;li&gt;加入八角、豬腳、醬油、冰糖和米酒，不需蓋上量杯，以20 分/Varoma/速度 烹煮。&lt;/li&gt;
+   &lt;li&gt;加入白胡椒粉、五香粉、鹽和高湯，將網鍋取代量杯，放在主鍋蓋上，以40 分/100°C/速度 烹煮。&lt;/li&gt;
+   &lt;li&gt;打開主鍋蓋，用刮刀棒稍微攪拌，將網鍋取代量杯，放在主鍋蓋上，以40 分/Varoma/速度 烹煮收汁，將豬腳取出盛入盤內，即可享用。&lt;/li&gt;&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以個人喜好豬腳的口感及所選購的部位，延長做法3的烹煮時間。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+調味料的比例由低遞增至高,因此取名為高昇排骨,也因吉洋的寓意而成為特色年菜之一。酸甜鹹香的滷肋排,搭配同時蒸煮的青江菜,簡單擺盤就能呈現一道精緻料理,年菜也可以如此輕懇省力!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高昇排骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FVpOr9DBuuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600 克 豬肋排 (每塊大小約4公分); 20 克 米酒; 40 克 糖; 60 克 烏醋; 80 克 醬油; 150 克 水
+80 克 蔥, 切段(約2公分); 30 克 薑, 切片; 40 克 蒜頭; 100 克 青江菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將豬肋排先以滾水川燙去除血水。&lt;/li&gt;
+   &lt;li&gt;將川燙過的豬肋排、米酒、糖、烏醋、醬油、水、蔥、薑和蒜頭放入主鍋，以10 分/Varoma//速度 0.5拌炒，使用筷子將主鍋內的豬肋排上下交換位置，再以10 分/Varoma//速度 0.5拌炒&lt;/li&gt;
+   &lt;li&gt;架上蒸鍋組，將青江菜鋪在蒸盤上，以3-5 分/Varoma//速度 0.5蒸煮至青江菜蒸熟。&lt;/li&gt;
+   &lt;li&gt;取下蒸鍋組，不需蓋上量杯，以5 分/Varoma//速度 0.5收汁，將肋排取出，搭配青江菜享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-93.jpg</t>
+  </si>
+  <si>
+    <t>fig/fig-Thermomix/AiCity-945-Recipe-94.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+將帶皮的萊姆及水放入主鍋内,只需兩秒鐘的時間,就有一壺清涼的萊姆汁可飲用,萊姆皮的香氣加上微酸的果肉纖維,是您炎夏消暑的最佳選擇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萊姆汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+發甜的洛神檸檬汁,加上好處多多的奇亞籽,除了幫助消化補充鈣質和蛋白質,讓您在享用飲料之餘,還能吃進健康!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛神檸檬奇亞籽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R9QYbwO3vWY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>950 克 水; 20 克 乾燥洛神花; 30 克 冰糖粉; 4 茶匙 奇亞籽; 100 克 檸檬 ，1開4; 45 克 蜂蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將350克水、洛神花和冰糖粉放入主鍋，以8 分/100°C/速度 1烹煮，再以15 秒/速度 10調合，倒入碗內備用。清空主鍋。&lt;/li&gt;
+   &lt;li&gt;在4個杯子內分別加入1茶匙奇亞籽及80克洛神花茶，浸泡10分鐘後，放入冰箱冷藏至少1小時。&lt;/li&gt;
+   &lt;li&gt;將檸檬、蜂蜜和600克水放入主鍋，以Turbo/1秒/2次調合，置入網鍋，利用刮刀棒抵住網鍋，將檸檬汁倒入裝有洛神奇亞籽的杯中，攪勻後即可享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t6Zt2ACuqoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 - 3 顆 萊姆 (不需去皮)，一開四或 2 - 3 顆 檸檬 ，表皮刷洗乾淨，一開四; 1000 克 冷開水; 100 克 冰糖粉 ，依個人口味調整; 10 塊 冰塊 (非必選)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+   &lt;li&gt;將萊姆、500克水和冰糖粉放入主鍋，以Turbo/1秒/2次調合。&lt;/li&gt;
+   &lt;li&gt;加入500克水，置入網鍋，用刮刀棒抵住網鍋，濾出萊姆汁到玻璃壺中，加入冰塊，即可享用。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這是一道非常適合用美善品製作的清涼飲品，尤其在盛產檸檬或是萊姆的國家，像是義大利、西班牙、葡萄牙和墨西哥都是相當受歡迎的。
+可以選用小顆且表面光滑的萊姆，其含有較多的水份且白色苦味的部份較少。
+依您所選購萊姆的甜度，調整糖添加的份量。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2085,13 +2543,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584BFB88-3DE0-E44E-AA44-0B73634FA981}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2123,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -2140,7 +2598,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>92</v>
@@ -2152,7 +2610,7 @@
         <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>95</v>
@@ -2169,7 +2627,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
@@ -2178,13 +2636,13 @@
         <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>9</v>
@@ -2198,28 +2656,28 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="335">
@@ -2227,28 +2685,28 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="160">
@@ -2256,28 +2714,28 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="240">
@@ -2285,28 +2743,28 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="224">
@@ -2314,28 +2772,28 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="144">
@@ -2343,28 +2801,28 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="192">
@@ -2372,25 +2830,25 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="144">
@@ -2398,28 +2856,28 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="144">
@@ -2427,28 +2885,28 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="144">
@@ -2456,28 +2914,28 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="176">
@@ -2485,28 +2943,28 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="144">
@@ -2517,25 +2975,25 @@
         <v>89</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="160">
@@ -2546,25 +3004,25 @@
         <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="320">
@@ -2575,25 +3033,25 @@
         <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="350">
@@ -2604,25 +3062,25 @@
         <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="256">
@@ -2633,22 +3091,22 @@
         <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="350">
@@ -2659,22 +3117,22 @@
         <v>89</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>74</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="144">
@@ -2685,25 +3143,25 @@
         <v>89</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>75</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="208">
@@ -2714,25 +3172,25 @@
         <v>89</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="144">
@@ -2743,25 +3201,25 @@
         <v>89</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="320">
@@ -2772,22 +3230,22 @@
         <v>89</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>78</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="128">
@@ -2798,25 +3256,25 @@
         <v>89</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="208">
@@ -2827,25 +3285,25 @@
         <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>80</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="224">
@@ -2856,22 +3314,22 @@
         <v>89</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="288">
@@ -2882,22 +3340,22 @@
         <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>82</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="304">
@@ -2908,25 +3366,25 @@
         <v>89</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="240">
@@ -2937,25 +3395,25 @@
         <v>89</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="128">
@@ -2966,25 +3424,25 @@
         <v>89</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="112">
@@ -2995,22 +3453,22 @@
         <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="160">
@@ -3021,25 +3479,25 @@
         <v>89</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="176">
@@ -3050,22 +3508,22 @@
         <v>89</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="176">
@@ -3076,22 +3534,22 @@
         <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="240">
@@ -3102,22 +3560,22 @@
         <v>89</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="192">
@@ -3128,22 +3586,22 @@
         <v>89</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="208">
@@ -3154,22 +3612,22 @@
         <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="176">
@@ -3180,22 +3638,22 @@
         <v>89</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="240">
@@ -3206,25 +3664,25 @@
         <v>89</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="176">
@@ -3235,25 +3693,25 @@
         <v>89</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="288">
@@ -3264,25 +3722,25 @@
         <v>90</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="160">
@@ -3293,25 +3751,25 @@
         <v>90</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="350">
@@ -3322,25 +3780,25 @@
         <v>90</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="160">
@@ -3351,111 +3809,413 @@
         <v>90</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="64">
+    </row>
+    <row r="46" spans="1:9" ht="240">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="C46" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="E46" s="2" t="s">
-        <v>100</v>
+        <v>367</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="64">
+        <v>335</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="350">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="C47" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="E47" s="2" t="s">
-        <v>100</v>
+        <v>374</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="64">
+        <v>336</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="192">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="C48" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>380</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="64">
+        <v>337</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="176">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="C49" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="E49" s="2" t="s">
-        <v>100</v>
+        <v>386</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="64">
+        <v>338</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="144">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="C50" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>391</v>
+      </c>
       <c r="E50" s="2" t="s">
-        <v>100</v>
+        <v>392</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="64">
+        <v>339</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="176">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="C51" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="E51" s="2" t="s">
-        <v>100</v>
+        <v>397</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>340</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="192">
+      <c r="A52" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="192">
+      <c r="A53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="128">
+      <c r="A54" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="192">
+      <c r="A55" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="B55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="224">
+      <c r="A56" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="272">
+      <c r="A57" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="208">
+      <c r="A58" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="208">
+      <c r="A59" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -3497,6 +4257,20 @@
     <hyperlink ref="I42" r:id="rId34" xr:uid="{EAA663FF-C55A-5944-8E42-E25D9E683A6E}"/>
     <hyperlink ref="I44" r:id="rId35" xr:uid="{7FA15030-A99D-7743-AA0C-43BD74F08638}"/>
     <hyperlink ref="I45" r:id="rId36" xr:uid="{37684256-621C-BE4F-8EC6-8AAFB8D92E7F}"/>
+    <hyperlink ref="I46" r:id="rId37" xr:uid="{9ABB538B-FF71-2E48-867C-0A545DF104C5}"/>
+    <hyperlink ref="I47" r:id="rId38" xr:uid="{2016E757-36A0-3143-B010-FBB614767C02}"/>
+    <hyperlink ref="I48" r:id="rId39" xr:uid="{7CA0C60C-95EA-FC4B-8F63-37F66F2B5E62}"/>
+    <hyperlink ref="I49" r:id="rId40" xr:uid="{C76FA434-4A80-1549-A813-6C4D3255515D}"/>
+    <hyperlink ref="I50" r:id="rId41" xr:uid="{544DD936-F16F-7A42-84FF-4F6B5FA024A1}"/>
+    <hyperlink ref="I51" r:id="rId42" xr:uid="{2C141887-4600-E642-A778-A6F4FAA3E0C6}"/>
+    <hyperlink ref="I52" r:id="rId43" xr:uid="{BE40536E-9ECB-9541-B8E2-FA4ECA828096}"/>
+    <hyperlink ref="I53" r:id="rId44" xr:uid="{7F571CE0-A689-9941-8CB5-2F9C2D6AD9A7}"/>
+    <hyperlink ref="I56" r:id="rId45" xr:uid="{1F00B995-711F-1E4D-BED7-AD16D254C715}"/>
+    <hyperlink ref="I57" r:id="rId46" xr:uid="{DD674261-3EB4-AF4D-BE94-00C01A878D02}"/>
+    <hyperlink ref="I58" r:id="rId47" xr:uid="{4873BD4E-75DD-1F43-9384-2AECD4C17193}"/>
+    <hyperlink ref="I59" r:id="rId48" xr:uid="{664D19CD-C098-D24E-9C01-C8A75AB83FEE}"/>
+    <hyperlink ref="I55" r:id="rId49" xr:uid="{741DBE03-DD46-6E46-AADD-69D6B68E6819}"/>
+    <hyperlink ref="I54" r:id="rId50" xr:uid="{94A1C6FC-C3F2-EB41-819E-A6BFCD46EE2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
